--- a/ConceptMap-R5-MonetaryComponent-elements-for-R4.xlsx
+++ b/ConceptMap-R5-MonetaryComponent-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.5866046-06:00</t>
+    <t>2026-02-09T22:05:44.0592889-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-MonetaryComponent-elements-for-R4.xlsx
+++ b/ConceptMap-R5-MonetaryComponent-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.0592889-06:00</t>
+    <t>2026-02-17T14:42:27.4024093-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.type</t>
   </si>
   <si>
     <t>MonetaryComponent.code</t>
@@ -129,7 +129,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.code</t>
   </si>
   <si>
     <t>MonetaryComponent.factor</t>
@@ -138,7 +138,7 @@
     <t>factor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:factor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.factor</t>
   </si>
   <si>
     <t>MonetaryComponent.amount</t>
@@ -147,7 +147,7 @@
     <t>amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:amount</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent:http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.amount</t>
   </si>
 </sst>
 </file>
